--- a/MyVitarak/uploads/Product_Master.xlsx
+++ b/MyVitarak/uploads/Product_Master.xlsx
@@ -7,15 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>product</t>
   </si>
@@ -31,12 +30,18 @@
   <si>
     <t>gst</t>
   </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>no brand</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,12 +182,6 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -556,17 +555,13 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -909,72 +904,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MyVitarak/uploads/Product_Master.xlsx
+++ b/MyVitarak/uploads/Product_Master.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>product</t>
   </si>
@@ -30,18 +31,12 @@
   <si>
     <t>gst</t>
   </si>
-  <si>
-    <t>pen</t>
-  </si>
-  <si>
-    <t>no brand</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +177,12 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -555,13 +556,17 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -904,52 +909,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1.2</v>
-      </c>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>